--- a/doc/excel/党建/[sample_memberIn]组织关系转入录入样表.xlsx
+++ b/doc/excel/党建/[sample_memberIn]组织关系转入录入样表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13E5D8-C12A-4694-9965-056CEE052773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E1395-1ABF-44A6-A11F-E5873274C4FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$T$1:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$U$1:$U$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>学工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>97073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入党支部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,27 +650,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="19" width="16.875" customWidth="1"/>
-    <col min="20" max="20" width="15.875" customWidth="1"/>
-    <col min="21" max="23" width="9" customWidth="1"/>
+    <col min="3" max="4" width="19.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="20" width="16.875" customWidth="1"/>
+    <col min="21" max="21" width="15.875" customWidth="1"/>
+    <col min="22" max="24" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -672,59 +680,62 @@
       <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
@@ -735,32 +746,32 @@
         <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="M2" s="8" t="s">
         <v>31</v>
       </c>
@@ -782,11 +793,14 @@
       <c r="S2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
@@ -797,32 +811,32 @@
         <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" s="8" t="s">
         <v>31</v>
       </c>
@@ -844,14 +858,17 @@
       <c r="S3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3" xr:uid="{C7835812-BB68-4434-B5F7-A5AFA0AD3EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{C7835812-BB68-4434-B5F7-A5AFA0AD3EF5}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/excel/党建/[sample_memberIn]组织关系转入录入样表.xlsx
+++ b/doc/excel/党建/[sample_memberIn]组织关系转入录入样表.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E1395-1ABF-44A6-A11F-E5873274C4FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$U$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$V$1:$V$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3D18D837-DF00-473B-B29E-623634BC4896}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,27 +42,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0D98BF7D-E470-46C6-B9C3-55EDCAE54F33}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>请与组工系统里组织关系转出的类别保持一致</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>学工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,37 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抬头1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右边1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党费1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>转入分党委</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>介绍信有效天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,108 +85,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>党委缴纳至年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出办理时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入办理时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交书面申请书时间</t>
+  </si>
+  <si>
+    <t>确定为入党积极分子时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定为发展对象时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入党时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转正时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍信抬头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入党支部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，与系统内保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，与系统内名称保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，与系统内名称保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备党员或正式党员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入党委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>转出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党委缴纳至年月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转出办理时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转入办理时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交书面申请书时间</t>
-  </si>
-  <si>
-    <t>确定为入党积极分子时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定为发展对象时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入党时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转正时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍信抬头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备党员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-03-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抬头2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>地址2</t>
-  </si>
-  <si>
-    <t>电话2</t>
-  </si>
-  <si>
-    <t>传真2</t>
-  </si>
-  <si>
-    <t>右边2</t>
-  </si>
-  <si>
-    <t>党费2</t>
-  </si>
-  <si>
-    <t>B09007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转入党支部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -329,13 +272,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -649,226 +592,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="19.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="20" width="16.875" customWidth="1"/>
-    <col min="21" max="21" width="15.875" customWidth="1"/>
-    <col min="22" max="24" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="21" width="16.875" customWidth="1"/>
+    <col min="22" max="22" width="15.875" customWidth="1"/>
+    <col min="23" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="T1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="N2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="P2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{C7835812-BB68-4434-B5F7-A5AFA0AD3EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
